--- a/VeldeBotTelegram/DataBase/price.xlsx
+++ b/VeldeBotTelegram/DataBase/price.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Фасады</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Искусственный камень</t>
+  </si>
+  <si>
+    <t>МДФ шпон</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -444,9 +453,6 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,7 +882,7 @@
   <dimension ref="A6:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -903,69 +912,69 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>104364</v>
-      </c>
-      <c r="D9" s="13">
-        <v>110430.66666666666</v>
-      </c>
-      <c r="E9" s="13">
-        <v>110430.66666666666</v>
-      </c>
-      <c r="F9" s="13">
-        <v>119097.33333333333</v>
-      </c>
-      <c r="G9" s="13">
-        <v>131230.66666666666</v>
-      </c>
-      <c r="H9" s="3">
-        <v>155844</v>
+      <c r="C9" s="18">
+        <v>110760.52</v>
+      </c>
+      <c r="D9" s="18">
+        <v>102700.52</v>
+      </c>
+      <c r="E9" s="18">
+        <v>102700.52</v>
+      </c>
+      <c r="F9" s="18">
+        <v>110760.52</v>
+      </c>
+      <c r="G9" s="18">
+        <v>122044.52</v>
+      </c>
+      <c r="H9" s="18">
+        <v>144934.92000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
-        <v>75506.666666666657</v>
-      </c>
-      <c r="D10" s="6">
-        <v>82040</v>
-      </c>
-      <c r="E10" s="6">
-        <v>82430.666666666657</v>
-      </c>
-      <c r="F10" s="6">
-        <v>91373.333333333328</v>
-      </c>
-      <c r="G10" s="6">
-        <v>104440</v>
-      </c>
-      <c r="H10" s="7">
-        <v>121593.33333333333</v>
+      <c r="C10" s="18">
+        <v>84977.2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>76297.2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>76660.52</v>
+      </c>
+      <c r="F10" s="18">
+        <v>84977.2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>97129.2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>113081.8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,7 +1018,7 @@
   <dimension ref="A6:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1039,27 +1048,27 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
@@ -1082,7 +1091,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
